--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound6.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound6.xlsx
@@ -100,6 +100,24 @@
     <t>Herriman, UT</t>
   </si>
   <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>Tukwila, WA</t>
+  </si>
+  <si>
+    <t>NOLA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Metarie, LA</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
@@ -107,24 +125,6 @@
   </si>
   <si>
     <t>Quincy, MA</t>
-  </si>
-  <si>
-    <t>NOLA</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>Metarie, LA</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>Tukwila, WA</t>
   </si>
   <si>
     <t>OGDC</t>
@@ -173,6 +173,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF63B445"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1E191A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFC81A2E"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -182,22 +198,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B8F1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF63B445"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1E191A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,13 +248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF031E41"/>
+        <fgColor rgb="FF182A55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00AA"/>
+        <fgColor rgb="FF00AE94"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF182A55"/>
+        <fgColor rgb="FF031E41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00AE94"/>
+        <fgColor rgb="FFFF00AA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,23 +747,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>0.273430434340423</v>
+        <v>0.2018251983312983</v>
       </c>
       <c r="C3" s="13"/>
       <c r="E3" s="13">
-        <v>0.5895010245503201</v>
+        <v>0.7740679237966445</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="13">
-        <v>0.5919196151925856</v>
+        <v>0.6004862882210109</v>
       </c>
       <c r="I3" s="13"/>
       <c r="K3" s="13">
-        <v>0.728188753031231</v>
+        <v>0.5376093518419149</v>
       </c>
       <c r="L3" s="13"/>
       <c r="N3" s="13">
-        <v>0.2625520788509775</v>
+        <v>0.3050366941766499</v>
       </c>
       <c r="O3" s="13"/>
     </row>
@@ -772,23 +772,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>0.5901706277377924</v>
+        <v>0.5769063967915321</v>
       </c>
       <c r="C4" s="13"/>
       <c r="E4" s="13">
-        <v>0.8579910434671669</v>
+        <v>0.9790501634359141</v>
       </c>
       <c r="F4" s="13"/>
       <c r="H4" s="13">
-        <v>0.7771477583128475</v>
+        <v>0.7644544887138188</v>
       </c>
       <c r="I4" s="13"/>
       <c r="K4" s="13">
-        <v>0.9797928281441299</v>
+        <v>0.8510097674922191</v>
       </c>
       <c r="L4" s="13"/>
       <c r="N4" s="13">
-        <v>0.9948264964456824</v>
+        <v>0.994497636778538</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -797,23 +797,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>16.13706110773046</v>
+        <v>11.64342479510456</v>
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="12">
-        <v>50.5786599178893</v>
+        <v>75.78513273036036</v>
       </c>
       <c r="F5" s="12"/>
       <c r="H5" s="12">
-        <v>46.00090020483213</v>
+        <v>45.90444384416518</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="12">
-        <v>71.34741177552171</v>
+        <v>45.75108095126307</v>
       </c>
       <c r="L5" s="12"/>
       <c r="N5" s="12">
-        <v>26.11937647378485</v>
+        <v>30.33582714894159</v>
       </c>
       <c r="O5" s="12"/>
     </row>
@@ -822,34 +822,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="14">
-        <v>0.8577232</v>
+        <v>0.8510504</v>
       </c>
       <c r="C6" s="14">
-        <v>0.1422768</v>
+        <v>0.1353522</v>
       </c>
       <c r="E6" s="14">
-        <v>0.7181265</v>
+        <v>0.573364</v>
       </c>
       <c r="F6" s="14">
-        <v>0.2818735</v>
+        <v>0.406741</v>
       </c>
       <c r="H6" s="14">
-        <v>0.7704948</v>
+        <v>0.7575166</v>
       </c>
       <c r="I6" s="14">
-        <v>0.2295052</v>
+        <v>0.2166066</v>
       </c>
       <c r="K6" s="14">
-        <v>0.5834896000000001</v>
+        <v>0.707274</v>
       </c>
       <c r="L6" s="14">
-        <v>0.4165104</v>
+        <v>0.2706614</v>
       </c>
       <c r="N6" s="14">
-        <v>0.4576815</v>
+        <v>0.4451172</v>
       </c>
       <c r="O6" s="14">
-        <v>0.5423185</v>
+        <v>0.5302494</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -857,34 +857,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>43.3539518</v>
+        <v>43.3530678</v>
       </c>
       <c r="C7" s="15">
-        <v>21.9537786</v>
+        <v>21.9492816</v>
       </c>
       <c r="E7" s="15">
-        <v>30.2639326</v>
+        <v>36.2140022</v>
       </c>
       <c r="F7" s="15">
-        <v>20.2404382</v>
+        <v>32.1177468</v>
       </c>
       <c r="H7" s="15">
-        <v>22.933721</v>
+        <v>22.9403922</v>
       </c>
       <c r="I7" s="15">
-        <v>12.5326096</v>
+        <v>12.535789</v>
       </c>
       <c r="K7" s="15">
-        <v>36.2021092</v>
+        <v>30.2740958</v>
       </c>
       <c r="L7" s="15">
-        <v>32.1167242</v>
+        <v>20.2498244</v>
       </c>
       <c r="N7" s="15">
-        <v>23.8813934</v>
+        <v>23.8742042</v>
       </c>
       <c r="O7" s="15">
-        <v>25.7685836</v>
+        <v>25.7863382</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -898,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" s="15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H8" s="15">
         <v>6</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8" s="15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N8" s="15">
         <v>7</v>
@@ -933,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" s="15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H9" s="15">
         <v>9</v>
@@ -945,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="K9" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L9" s="15">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N9" s="15">
         <v>10</v>
@@ -968,10 +968,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="15">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F10" s="15">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H10" s="15">
         <v>11</v>
@@ -980,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="K10" s="15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L10" s="15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N10" s="15">
         <v>12</v>
@@ -1003,10 +1003,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="15">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F11" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H11" s="15">
         <v>13</v>
@@ -1015,10 +1015,10 @@
         <v>6</v>
       </c>
       <c r="K11" s="15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L11" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N11" s="15">
         <v>14</v>
@@ -1038,10 +1038,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H12" s="15">
         <v>15</v>
@@ -1050,10 +1050,10 @@
         <v>7</v>
       </c>
       <c r="K12" s="15">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L12" s="15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N12" s="15">
         <v>16</v>
@@ -1073,10 +1073,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="15">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F13" s="15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H13" s="15">
         <v>16</v>
@@ -1085,10 +1085,10 @@
         <v>7</v>
       </c>
       <c r="K13" s="15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L13" s="15">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N13" s="15">
         <v>17</v>
@@ -1108,10 +1108,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F14" s="15">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H14" s="15">
         <v>18</v>
@@ -1120,10 +1120,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="15">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L14" s="15">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N14" s="15">
         <v>19</v>
@@ -1143,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="E15" s="15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F15" s="15">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H15" s="15">
         <v>19</v>
@@ -1155,16 +1155,16 @@
         <v>10</v>
       </c>
       <c r="K15" s="15">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L15" s="15">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N15" s="15">
         <v>20</v>
       </c>
       <c r="O15" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1178,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="E16" s="15">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F16" s="15">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H16" s="15">
         <v>20</v>
@@ -1190,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="K16" s="15">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L16" s="15">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N16" s="15">
         <v>21</v>
@@ -1213,10 +1213,10 @@
         <v>21</v>
       </c>
       <c r="E17" s="15">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F17" s="15">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H17" s="15">
         <v>22</v>
@@ -1225,16 +1225,16 @@
         <v>12</v>
       </c>
       <c r="K17" s="15">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L17" s="15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N17" s="15">
         <v>23</v>
       </c>
       <c r="O17" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="15">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F18" s="15">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H18" s="15">
         <v>23</v>
@@ -1260,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="K18" s="15">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L18" s="15">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N18" s="15">
         <v>24</v>
@@ -1283,10 +1283,10 @@
         <v>24</v>
       </c>
       <c r="E19" s="15">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F19" s="15">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H19" s="15">
         <v>25</v>
@@ -1295,10 +1295,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="15">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L19" s="15">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N19" s="15">
         <v>26</v>
@@ -1312,16 +1312,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15">
         <v>26</v>
       </c>
       <c r="E20" s="15">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F20" s="15">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H20" s="15">
         <v>27</v>
@@ -1330,10 +1330,10 @@
         <v>15</v>
       </c>
       <c r="K20" s="15">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L20" s="15">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N20" s="15">
         <v>27</v>
@@ -1353,10 +1353,10 @@
         <v>28</v>
       </c>
       <c r="E21" s="15">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F21" s="15">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H21" s="15">
         <v>28</v>
@@ -1365,10 +1365,10 @@
         <v>16</v>
       </c>
       <c r="K21" s="15">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L21" s="15">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N21" s="15">
         <v>29</v>
@@ -1388,10 +1388,10 @@
         <v>29</v>
       </c>
       <c r="E22" s="15">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F22" s="15">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H22" s="15">
         <v>30</v>
@@ -1400,10 +1400,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="15">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L22" s="15">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N22" s="15">
         <v>31</v>
@@ -1423,10 +1423,10 @@
         <v>31</v>
       </c>
       <c r="E23" s="15">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F23" s="15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H23" s="15">
         <v>32</v>
@@ -1435,10 +1435,10 @@
         <v>20</v>
       </c>
       <c r="K23" s="15">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L23" s="15">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N23" s="15">
         <v>33</v>
@@ -1458,10 +1458,10 @@
         <v>35</v>
       </c>
       <c r="E24" s="15">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F24" s="15">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H24" s="15">
         <v>35</v>
@@ -1470,10 +1470,10 @@
         <v>21</v>
       </c>
       <c r="K24" s="15">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L24" s="15">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N24" s="15">
         <v>36</v>
@@ -1493,10 +1493,10 @@
         <v>38</v>
       </c>
       <c r="E25" s="15">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F25" s="15">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H25" s="15">
         <v>38</v>
@@ -1505,10 +1505,10 @@
         <v>24</v>
       </c>
       <c r="K25" s="15">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L25" s="15">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N25" s="15">
         <v>39</v>
@@ -1528,10 +1528,10 @@
         <v>43</v>
       </c>
       <c r="E26" s="15">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F26" s="15">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H26" s="15">
         <v>43</v>
@@ -1540,10 +1540,10 @@
         <v>28</v>
       </c>
       <c r="K26" s="15">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L26" s="15">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N26" s="15">
         <v>45</v>
